--- a/old_database/crypto/fastqFiles/fastq_1337.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_1337.xlsx
@@ -37,7 +37,7 @@
     <t>09.22.14</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1337</t>
   </si>
   <si>
     <t>sequence/run_1337_samples/run_1337_s_1_withindex_sequence.txt_TGAGGTT.fq</t>
